--- a/_CONCAT_FH_VicServ_MetroCivil.xlsx
+++ b/_CONCAT_FH_VicServ_MetroCivil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2437D935-7B67-439C-A1A7-EC343EA3FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C844FC5C-EE94-4AB0-9E21-E82D03F5316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="1530" windowWidth="26700" windowHeight="17595" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="9015" yWindow="435" windowWidth="27885" windowHeight="19035" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,263 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
   <si>
     <t>Date Completed:</t>
+  </si>
+  <si>
+    <t>Prior to commencing any activity</t>
+  </si>
+  <si>
+    <t>Drawings and drawing registers</t>
+  </si>
+  <si>
+    <t>Visual inspection</t>
+  </si>
+  <si>
+    <t>HP*</t>
+  </si>
+  <si>
+    <t>Site Engineer / Site Foreman</t>
+  </si>
+  <si>
+    <t>Implementation of all measures and controls</t>
+  </si>
+  <si>
+    <t>Visual Inspection</t>
+  </si>
+  <si>
+    <t>Prior to Commencing</t>
+  </si>
+  <si>
+    <t>Excavation Permit</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Check for correct documentation</t>
+  </si>
+  <si>
+    <t>Ensure that all employees and subcontractors are:_x000D_
+- using the correct and complete set of drawings_x000D_
+-all drawings are the latest revision</t>
+  </si>
+  <si>
+    <t>This ITP signed off</t>
+  </si>
+  <si>
+    <t>Project Engineer / Site Foreman</t>
+  </si>
+  <si>
+    <t>All necessary measures and controls are being implemented, that is: QMP, TMP, JSEA, SWMS CHAR(AMP) ITP</t>
+  </si>
+  <si>
+    <t>QMP, TMP, JSEA, SWMS, ITP</t>
+  </si>
+  <si>
+    <t>Precast Materials Inspection</t>
+  </si>
+  <si>
+    <t>Each Delivery</t>
+  </si>
+  <si>
+    <t>Precast materials have been inspected and fit for purpose and free of defects</t>
+  </si>
+  <si>
+    <t>701.04b</t>
+  </si>
+  <si>
+    <t>This ITP signed Receival and Inspection Checklist</t>
+  </si>
+  <si>
+    <t>Project Engineer</t>
+  </si>
+  <si>
+    <t>Precast Pipe Compliance</t>
+  </si>
+  <si>
+    <t>Precast Reinforced Concrete Pipes shall comply with requirements of AS 4058_x000D_
+Pits deeper than 1.00m to be fitted with step irons as shown on the drawings. Step irons are compliant with AS4680 with a minimum average coating thickness equivalent to 600 g/m2.</t>
+  </si>
+  <si>
+    <t>VicRoads Spec._x000D_
+Cl.619 Cl. 701.04(a)_x000D_
+Cl. 701.04(b)(i) Cl. 705.04(d) Cl. 705.11 AS4058_x000D_
+AS4680</t>
+  </si>
+  <si>
+    <t>Document review CHAR(AMP) Site inspection</t>
+  </si>
+  <si>
+    <t>Receival CHAR(AMP) Inspection Checklist_x000D_
+Manufacturer cetificate or accreditation</t>
+  </si>
+  <si>
+    <t>Bedding material classification</t>
+  </si>
+  <si>
+    <t>Prior to start</t>
+  </si>
+  <si>
+    <t>Nominated material shall be free from perishable matter and conform with the requirements below:_x000D_
+100% passing 19mm sieve. 5%-40% passing 0.075mm. PI = 20 max.</t>
+  </si>
+  <si>
+    <t>701.04e_x000D_
+Table 701.041_x000D_
+Table 701.042_x000D_
+Table 701.231</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Test Reports from supplier</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Backfill material Classification</t>
+  </si>
+  <si>
+    <t>Nominated material shall be free from perishable matter and conform with the requirements below:_x000D_
+100% passing 37.5mm sieve._x000D_
+5%-40% passing 0.075mm sieve. PI = 20 max.</t>
+  </si>
+  <si>
+    <t>Mortar material classification</t>
+  </si>
+  <si>
+    <t>Cementituous grouts shall be minimum Type C class dual shinkage compensating, with a minimum 28 day compressive strength of 40_x000D_
+Mpa</t>
+  </si>
+  <si>
+    <t>Each lot</t>
+  </si>
+  <si>
+    <t>An excavation permit must be issued prior to any excavation commencing._x000D_
+Plant and equipment shall be appropriate for the task. Excavation operations shall not disturb areas outside the limit of excavation</t>
+  </si>
+  <si>
+    <t>Excavation permit</t>
+  </si>
+  <si>
+    <t>ITP Signed</t>
+  </si>
+  <si>
+    <t>Set out drainage</t>
+  </si>
+  <si>
+    <t>Prior to excavation</t>
+  </si>
+  <si>
+    <t>The position of all drainage lines are to be confirmed with the superintendent</t>
+  </si>
+  <si>
+    <t>Drawings 701.10</t>
+  </si>
+  <si>
+    <t>Engineer / Forman CHAR(AMP)  Superintendent</t>
+  </si>
+  <si>
+    <t>Excavation (pipes)</t>
+  </si>
+  <si>
+    <t>Each Trench</t>
+  </si>
+  <si>
+    <t>Horizontal clearance ( between the walls of trench to the side of pipe shall be 300mm – 600mm for pipes, and 0.5 to 1 times the overall height of the culvert for box culverts._x000D_
+Trench walls to be vertical where practical Depth of trench:_x000D_
+• &gt; 100mm below underside of pipe (for pipe width CHAR(LESS) 1500 mm)_x000D_
+• &gt; 200mm  below underside of pipe (for pipe width &gt; 1500 mm)</t>
+  </si>
+  <si>
+    <t>701.15_x000D_
+Table 701.151</t>
+  </si>
+  <si>
+    <t>Site Foreman</t>
+  </si>
+  <si>
+    <t>Compact base of trench</t>
+  </si>
+  <si>
+    <t>Compacted to refusal using mechanical plant.</t>
+  </si>
+  <si>
+    <t>Place bedding material CHAR(AMP) compact</t>
+  </si>
+  <si>
+    <t>Bedding material shall be compactied to no less than the below thickness:_x000D_
+- 100mm under pipes._x000D_
+- 80mm (earth foundation)_x000D_
+- 150mm (rock foundation)</t>
+  </si>
+  <si>
+    <t>Place pipes</t>
+  </si>
+  <si>
+    <t>Each Line/Pit</t>
+  </si>
+  <si>
+    <t>Pipes CHAR(AMP) pits placed as shown on the drawings. No laying to occur until bedding lines and levels and compaction requirements have been satisfied</t>
+  </si>
+  <si>
+    <t>Drawings 701.17</t>
+  </si>
+  <si>
+    <t>Jointing pipe sections</t>
+  </si>
+  <si>
+    <t>Each Line</t>
+  </si>
+  <si>
+    <t>Join pipes with rubber rings in accordance to manufacturer's instructions, check that the rings are clean and undisturbed. Any disturbed rings are to be cleaned and reassembled</t>
+  </si>
+  <si>
+    <t>Place CHAR(AMP) compact backfill material over pipes</t>
+  </si>
+  <si>
+    <t>each lot</t>
+  </si>
+  <si>
+    <t>Backfill under paved area:_x000D_
+fill trench with selected back fill material to subgrade level_x000D_
+Backfill under area not paved:_x000D_
+Back fill trench with selected back fill to a level 0.3 m above the top of pipe or culvert, and ordinary back fill above that level_x000D_
+Loose layer thickness CHAR(LESS)= 150mm. 1 lot = 150mm layer</t>
+  </si>
+  <si>
+    <t>701.14_x000D_
+701.15</t>
+  </si>
+  <si>
+    <t>Repairs to damaged pipes</t>
+  </si>
+  <si>
+    <t>Each damaged pipe</t>
+  </si>
+  <si>
+    <t>No repairs shall be undertaken without the superintendents approval of the repair materials and procedures_x000D_
+All repair procedures undertaken in accordance with Cl 701.25</t>
+  </si>
+  <si>
+    <t>Compaction and moisture content of backfill  CHAR(AMP) bedding material</t>
+  </si>
+  <si>
+    <t>as required/requested</t>
+  </si>
+  <si>
+    <t>Backfill material shall be compactied to a mean density ratio of 92% using standard compactive effort._x000D_
+Bedding material shall be compacted using a compaction plated to refusal.</t>
+  </si>
+  <si>
+    <t>Test Reports</t>
   </si>
 </sst>
 </file>
@@ -429,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -454,7 +708,7 @@
     <col min="19" max="19" width="17.140625" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="96.7109375" customWidth="1"/>
+    <col min="22" max="22" width="86.42578125" customWidth="1"/>
     <col min="23" max="23" width="146.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,184 +734,1894 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
       <c r="L2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
-        <v xml:space="preserve"> - </v>
+        <v>1.1 - Check for correct documentation</v>
       </c>
       <c r="M2" t="str">
         <f>"FREQUENCY: "&amp;D2</f>
-        <v xml:space="preserve">FREQUENCY: </v>
+        <v>FREQUENCY: Prior to commencing any activity</v>
       </c>
       <c r="N2" t="str">
         <f>"ACCEPTANCE CRITERIA: "&amp;E2</f>
-        <v xml:space="preserve">ACCEPTANCE CRITERIA: </v>
+        <v>ACCEPTANCE CRITERIA: Ensure that all employees and subcontractors are:_x000D_
+- using the correct and complete set of drawings_x000D_
+-all drawings are the latest revision</v>
       </c>
       <c r="O2" t="str">
         <f>"REFERENCE DOCUMENTS: "&amp;F2</f>
-        <v xml:space="preserve">REFERENCE DOCUMENTS: </v>
+        <v>REFERENCE DOCUMENTS: Drawings and drawing registers</v>
       </c>
       <c r="P2" t="str">
         <f>"INSPECTION/TEST METHOD: "&amp;G2</f>
-        <v xml:space="preserve">INSPECTION/TEST METHOD: </v>
+        <v>INSPECTION/TEST METHOD: Visual inspection</v>
       </c>
       <c r="Q2" t="str">
         <f>"RECORD OF CONFORMITY: "&amp;H2</f>
-        <v xml:space="preserve">RECORD OF CONFORMITY: </v>
-      </c>
-      <c r="R2">
+        <v>RECORD OF CONFORMITY: This ITP signed off</v>
+      </c>
+      <c r="R2" t="str">
         <f>I2</f>
-        <v>0</v>
+        <v>HP*</v>
       </c>
       <c r="S2" t="str">
         <f>"RESPONSIBILITY: "&amp;J2</f>
-        <v xml:space="preserve">RESPONSIBILITY: </v>
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="V2" t="str" cm="1">
-        <f t="array" ref="V2:V10">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,L2:T43)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>-</v>
+        <f t="array" ref="V2:V154">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,L2:T43)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>1.1 - Check for correct documentation</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L18" si="0">A3&amp;" - "&amp;B3</f>
+        <v>1.2 - Implementation of all measures and controls</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M18" si="1">"FREQUENCY: "&amp;D3</f>
+        <v>FREQUENCY: Prior to commencing any activity</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N18" si="2">"ACCEPTANCE CRITERIA: "&amp;E3</f>
+        <v>ACCEPTANCE CRITERIA: All necessary measures and controls are being implemented, that is: QMP, TMP, JSEA, SWMS CHAR(AMP) ITP</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O18" si="3">"REFERENCE DOCUMENTS: "&amp;F3</f>
+        <v>REFERENCE DOCUMENTS: QMP, TMP, JSEA, SWMS, ITP</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P18" si="4">"INSPECTION/TEST METHOD: "&amp;G3</f>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q18" si="5">"RECORD OF CONFORMITY: "&amp;H3</f>
+        <v>RECORD OF CONFORMITY: This ITP signed off</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R18" si="6">I3</f>
+        <v>HP*</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S18" si="7">"RESPONSIBILITY: "&amp;J3</f>
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
       <c r="V3" t="str">
-        <v>FREQUENCY:</v>
+        <v>FREQUENCY: Prior to commencing any activity</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>1.3 - Precast Materials Inspection</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each Delivery</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Precast materials have been inspected and fit for purpose and free of defects</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.04b</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: This ITP signed Receival and Inspection Checklist</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
       <c r="V4" t="str">
-        <v>ACCEPTANCE CRITERIA:</v>
+        <v>ACCEPTANCE CRITERIA: Ensure that all employees and subcontractors are:
+- using the correct and complete set of drawings
+-all drawings are the latest revision</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>1.4 - Precast Pipe Compliance</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Prior to Commencing</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Precast Reinforced Concrete Pipes shall comply with requirements of AS 4058_x000D_
+Pits deeper than 1.00m to be fitted with step irons as shown on the drawings. Step irons are compliant with AS4680 with a minimum average coating thickness equivalent to 600 g/m2.</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: VicRoads Spec._x000D_
+Cl.619 Cl. 701.04(a)_x000D_
+Cl. 701.04(b)(i) Cl. 705.04(d) Cl. 705.11 AS4058_x000D_
+AS4680</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Document review CHAR(AMP) Site inspection</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: Receival CHAR(AMP) Inspection Checklist_x000D_
+Manufacturer cetificate or accreditation</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
       <c r="V5" t="str">
-        <v>REFERENCE DOCUMENTS:</v>
+        <v>REFERENCE DOCUMENTS: Drawings and drawing registers</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5 - Bedding material classification</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Prior to start</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Nominated material shall be free from perishable matter and conform with the requirements below:_x000D_
+100% passing 19mm sieve. 5%-40% passing 0.075mm. PI = 20 max.</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.04e_x000D_
+Table 701.041_x000D_
+Table 701.042_x000D_
+Table 701.231</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: Test Reports from supplier</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="6"/>
+        <v>TP</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
       <c r="V6" t="str">
-        <v>INSPECTION/TEST METHOD:</v>
+        <v>INSPECTION/TEST METHOD: Visual inspection</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>1.6 - Backfill material Classification</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Prior to start</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Nominated material shall be free from perishable matter and conform with the requirements below:_x000D_
+100% passing 37.5mm sieve._x000D_
+5%-40% passing 0.075mm sieve. PI = 20 max.</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.04e_x000D_
+Table 701.041_x000D_
+Table 701.042_x000D_
+Table 701.231</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: Test Reports from supplier</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="6"/>
+        <v>TP</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T7" t="s">
+        <v>0</v>
+      </c>
       <c r="V7" t="str">
-        <v>RECORD OF CONFORMITY:</v>
+        <v>RECORD OF CONFORMITY: This ITP signed off</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="V8">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1">
+        <v>610.33000000000004</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>1.7 - Mortar material classification</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Prior to start</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Cementituous grouts shall be minimum Type C class dual shinkage compensating, with a minimum 28 day compressive strength of 40_x000D_
+Mpa</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 610.33</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: Test Reports from supplier</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="6"/>
+        <v>TP</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T8" t="s">
         <v>0</v>
       </c>
+      <c r="V8" t="str">
+        <v>HP*</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9">
+        <v>2.1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>2.1 - Excavation Permit</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each lot</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: An excavation permit must be issued prior to any excavation commencing._x000D_
+Plant and equipment shall be appropriate for the task. Excavation operations shall not disturb areas outside the limit of excavation</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: Excavation permit</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
+        <v>HP*</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
       <c r="V9" t="str">
-        <v>RESPONSIBILITY:</v>
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2 - Set out drainage</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Prior to excavation</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: The position of all drainage lines are to be confirmed with the superintendent</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: Drawings 701.10</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="6"/>
+        <v>HP</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Engineer / Forman CHAR(AMP)  Superintendent</v>
+      </c>
+      <c r="T10" t="s">
+        <v>0</v>
+      </c>
       <c r="V10" t="str">
         <v>Date Completed:</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>2.3 - Excavation (pipes)</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each Trench</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Horizontal clearance ( between the walls of trench to the side of pipe shall be 300mm – 600mm for pipes, and 0.5 to 1 times the overall height of the culvert for box culverts._x000D_
+Trench walls to be vertical where practical Depth of trench:_x000D_
+• &gt; 100mm below underside of pipe (for pipe width CHAR(LESS) 1500 mm)_x000D_
+• &gt; 200mm  below underside of pipe (for pipe width &gt; 1500 mm)</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.15_x000D_
+Table 701.151</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Site Foreman</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" t="str">
+        <v>1.2 - Implementation of all measures and controls</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12">
+        <v>2.4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1">
+        <v>701.1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>2.4 - Compact base of trench</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each Trench</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Compacted to refusal using mechanical plant.</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.1</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" t="str">
+        <v>FREQUENCY: Prior to commencing any activity</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13">
+        <v>2.5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>701.19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>2.5 - Place bedding material CHAR(AMP) compact</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each Trench</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Bedding material shall be compactied to no less than the below thickness:_x000D_
+- 100mm under pipes._x000D_
+- 80mm (earth foundation)_x000D_
+- 150mm (rock foundation)</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.19</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" t="str">
+        <v>ACCEPTANCE CRITERIA: All necessary measures and controls are being implemented, that is: QMP, TMP, JSEA, SWMS CHAR(AMP) ITP</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14">
+        <v>2.6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>2.6 - Place pipes</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each Line/Pit</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Pipes CHAR(AMP) pits placed as shown on the drawings. No laying to occur until bedding lines and levels and compaction requirements have been satisfied</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: Drawings 701.17</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
+      </c>
+      <c r="T14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" t="str">
+        <v>REFERENCE DOCUMENTS: QMP, TMP, JSEA, SWMS, ITP</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15">
+        <v>2.7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1">
+        <v>701.18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>2.7 - Jointing pipe sections</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each Line</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Join pipes with rubber rings in accordance to manufacturer's instructions, check that the rings are clean and undisturbed. Any disturbed rings are to be cleaned and reassembled</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.18</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.8 - Place CHAR(AMP) compact backfill material over pipes</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: each lot</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Backfill under paved area:_x000D_
+fill trench with selected back fill material to subgrade level_x000D_
+Backfill under area not paved:_x000D_
+Back fill trench with selected back fill to a level 0.3 m above the top of pipe or culvert, and ordinary back fill above that level_x000D_
+Loose layer thickness CHAR(LESS)= 150mm. 1 lot = 150mm layer</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.14_x000D_
+701.15</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="6"/>
+        <v>IP</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Site Engineer / Site Foreman</v>
+      </c>
+      <c r="T16" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" t="str">
+        <v>RECORD OF CONFORMITY: This ITP signed off</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1">
+        <v>701.31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>2.9 - Repairs to damaged pipes</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: Each damaged pipe</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: No repairs shall be undertaken without the superintendents approval of the repair materials and procedures_x000D_
+All repair procedures undertaken in accordance with Cl 701.25</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.31</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="6"/>
+        <v>HP</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Engineer / Forman CHAR(AMP)  Superintendent</v>
+      </c>
+      <c r="T17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" t="str">
+        <v>HP*</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1">
+        <v>701.2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>3.1 - Compaction and moisture content of backfill  CHAR(AMP) bedding material</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>FREQUENCY: as required/requested</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Backfill material shall be compactied to a mean density ratio of 92% using standard compactive effort._x000D_
+Bedding material shall be compacted using a compaction plated to refusal.</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="3"/>
+        <v>REFERENCE DOCUMENTS: 701.2</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="5"/>
+        <v>RECORD OF CONFORMITY: Test Reports</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="6"/>
+        <v>TP</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="7"/>
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+      <c r="T18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" t="str">
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" t="str">
+        <v>1.3 - Precast Materials Inspection</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V21" t="str">
+        <v>FREQUENCY: Each Delivery</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="V22" t="str">
+        <v>ACCEPTANCE CRITERIA: Precast materials have been inspected and fit for purpose and free of defects</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" t="str">
+        <v>REFERENCE DOCUMENTS: 701.04b</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V24" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V25" t="str">
+        <v>RECORD OF CONFORMITY: This ITP signed Receival and Inspection Checklist</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V26" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V27" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V28" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" t="str">
+        <v>1.4 - Precast Pipe Compliance</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" t="str">
+        <v>FREQUENCY: Prior to Commencing</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V31" t="str">
+        <v>ACCEPTANCE CRITERIA: Precast Reinforced Concrete Pipes shall comply with requirements of AS 4058
+Pits deeper than 1.00m to be fitted with step irons as shown on the drawings. Step irons are compliant with AS4680 with a minimum average coating thickness equivalent to 600 g/m2.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V32" t="str">
+        <v>REFERENCE DOCUMENTS: VicRoads Spec.
+Cl.619 Cl. 701.04(a)
+Cl. 701.04(b)(i) Cl. 705.04(d) Cl. 705.11 AS4058
+AS4680</v>
+      </c>
+    </row>
+    <row r="33" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V33" t="str">
+        <v>INSPECTION/TEST METHOD: Document review CHAR(AMP) Site inspection</v>
+      </c>
+    </row>
+    <row r="34" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V34" t="str">
+        <v>RECORD OF CONFORMITY: Receival CHAR(AMP) Inspection Checklist
+Manufacturer cetificate or accreditation</v>
+      </c>
+    </row>
+    <row r="35" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V35" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="36" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V36" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="37" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V37" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="38" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V38" t="str">
+        <v>1.5 - Bedding material classification</v>
+      </c>
+    </row>
+    <row r="39" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V39" t="str">
+        <v>FREQUENCY: Prior to start</v>
+      </c>
+    </row>
+    <row r="40" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V40" t="str">
+        <v>ACCEPTANCE CRITERIA: Nominated material shall be free from perishable matter and conform with the requirements below:
+100% passing 19mm sieve. 5%-40% passing 0.075mm. PI = 20 max.</v>
+      </c>
+    </row>
+    <row r="41" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V41" t="str">
+        <v>REFERENCE DOCUMENTS: 701.04e
+Table 701.041
+Table 701.042
+Table 701.231</v>
+      </c>
+    </row>
+    <row r="42" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V42" t="str">
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+    </row>
+    <row r="43" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V43" t="str">
+        <v>RECORD OF CONFORMITY: Test Reports from supplier</v>
+      </c>
+    </row>
+    <row r="44" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V44" t="str">
+        <v>TP</v>
+      </c>
+    </row>
+    <row r="45" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V45" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="46" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V46" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="47" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V47" t="str">
+        <v>1.6 - Backfill material Classification</v>
+      </c>
+    </row>
+    <row r="48" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V48" t="str">
+        <v>FREQUENCY: Prior to start</v>
+      </c>
+    </row>
+    <row r="49" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V49" t="str">
+        <v>ACCEPTANCE CRITERIA: Nominated material shall be free from perishable matter and conform with the requirements below:
+100% passing 37.5mm sieve.
+5%-40% passing 0.075mm sieve. PI = 20 max.</v>
+      </c>
+    </row>
+    <row r="50" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V50" t="str">
+        <v>REFERENCE DOCUMENTS: 701.04e
+Table 701.041
+Table 701.042
+Table 701.231</v>
+      </c>
+    </row>
+    <row r="51" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V51" t="str">
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+    </row>
+    <row r="52" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V52" t="str">
+        <v>RECORD OF CONFORMITY: Test Reports from supplier</v>
+      </c>
+    </row>
+    <row r="53" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V53" t="str">
+        <v>TP</v>
+      </c>
+    </row>
+    <row r="54" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V54" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="55" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V55" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="56" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V56" t="str">
+        <v>1.7 - Mortar material classification</v>
+      </c>
+    </row>
+    <row r="57" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V57" t="str">
+        <v>FREQUENCY: Prior to start</v>
+      </c>
+    </row>
+    <row r="58" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V58" t="str">
+        <v>ACCEPTANCE CRITERIA: Cementituous grouts shall be minimum Type C class dual shinkage compensating, with a minimum 28 day compressive strength of 40
+Mpa</v>
+      </c>
+    </row>
+    <row r="59" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V59" t="str">
+        <v>REFERENCE DOCUMENTS: 610.33</v>
+      </c>
+    </row>
+    <row r="60" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V60" t="str">
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+    </row>
+    <row r="61" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V61" t="str">
+        <v>RECORD OF CONFORMITY: Test Reports from supplier</v>
+      </c>
+    </row>
+    <row r="62" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V62" t="str">
+        <v>TP</v>
+      </c>
+    </row>
+    <row r="63" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V63" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="64" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V64" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="65" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V65" t="str">
+        <v>2.1 - Excavation Permit</v>
+      </c>
+    </row>
+    <row r="66" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V66" t="str">
+        <v>FREQUENCY: Each lot</v>
+      </c>
+    </row>
+    <row r="67" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V67" t="str">
+        <v>ACCEPTANCE CRITERIA: An excavation permit must be issued prior to any excavation commencing.
+Plant and equipment shall be appropriate for the task. Excavation operations shall not disturb areas outside the limit of excavation</v>
+      </c>
+    </row>
+    <row r="68" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V68" t="str">
+        <v>REFERENCE DOCUMENTS: Excavation permit</v>
+      </c>
+    </row>
+    <row r="69" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V69" t="str">
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+    </row>
+    <row r="70" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V70" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="71" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V71" t="str">
+        <v>HP*</v>
+      </c>
+    </row>
+    <row r="72" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V72" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="73" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V73" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="74" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V74" t="str">
+        <v>2.2 - Set out drainage</v>
+      </c>
+    </row>
+    <row r="75" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V75" t="str">
+        <v>FREQUENCY: Prior to excavation</v>
+      </c>
+    </row>
+    <row r="76" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V76" t="str">
+        <v>ACCEPTANCE CRITERIA: The position of all drainage lines are to be confirmed with the superintendent</v>
+      </c>
+    </row>
+    <row r="77" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V77" t="str">
+        <v>REFERENCE DOCUMENTS: Drawings 701.10</v>
+      </c>
+    </row>
+    <row r="78" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V78" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="79" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V79" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="80" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V80" t="str">
+        <v>HP</v>
+      </c>
+    </row>
+    <row r="81" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V81" t="str">
+        <v>RESPONSIBILITY: Engineer / Forman CHAR(AMP)  Superintendent</v>
+      </c>
+    </row>
+    <row r="82" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V82" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="83" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V83" t="str">
+        <v>2.3 - Excavation (pipes)</v>
+      </c>
+    </row>
+    <row r="84" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V84" t="str">
+        <v>FREQUENCY: Each Trench</v>
+      </c>
+    </row>
+    <row r="85" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V85" t="str">
+        <v>ACCEPTANCE CRITERIA: Horizontal clearance ( between the walls of trench to the side of pipe shall be 300mm – 600mm for pipes, and 0.5 to 1 times the overall height of the culvert for box culverts.
+Trench walls to be vertical where practical Depth of trench:
+• &gt; 100mm below underside of pipe (for pipe width CHAR(LESS) 1500 mm)
+• &gt; 200mm  below underside of pipe (for pipe width &gt; 1500 mm)</v>
+      </c>
+    </row>
+    <row r="86" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V86" t="str">
+        <v>REFERENCE DOCUMENTS: 701.15
+Table 701.151</v>
+      </c>
+    </row>
+    <row r="87" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V87" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="88" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V88" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="89" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V89" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="90" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V90" t="str">
+        <v>RESPONSIBILITY: Site Foreman</v>
+      </c>
+    </row>
+    <row r="91" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V91" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="92" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V92" t="str">
+        <v>2.4 - Compact base of trench</v>
+      </c>
+    </row>
+    <row r="93" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V93" t="str">
+        <v>FREQUENCY: Each Trench</v>
+      </c>
+    </row>
+    <row r="94" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V94" t="str">
+        <v>ACCEPTANCE CRITERIA: Compacted to refusal using mechanical plant.</v>
+      </c>
+    </row>
+    <row r="95" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V95" t="str">
+        <v>REFERENCE DOCUMENTS: 701.1</v>
+      </c>
+    </row>
+    <row r="96" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V96" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="97" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V97" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="98" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V98" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="99" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V99" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="100" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V100" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="101" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V101" t="str">
+        <v>2.5 - Place bedding material CHAR(AMP) compact</v>
+      </c>
+    </row>
+    <row r="102" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V102" t="str">
+        <v>FREQUENCY: Each Trench</v>
+      </c>
+    </row>
+    <row r="103" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V103" t="str">
+        <v>ACCEPTANCE CRITERIA: Bedding material shall be compactied to no less than the below thickness:
+- 100mm under pipes.
+- 80mm (earth foundation)
+- 150mm (rock foundation)</v>
+      </c>
+    </row>
+    <row r="104" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V104" t="str">
+        <v>REFERENCE DOCUMENTS: 701.19</v>
+      </c>
+    </row>
+    <row r="105" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V105" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="106" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V106" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="107" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V107" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="108" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V108" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="109" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V109" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="110" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V110" t="str">
+        <v>2.6 - Place pipes</v>
+      </c>
+    </row>
+    <row r="111" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V111" t="str">
+        <v>FREQUENCY: Each Line/Pit</v>
+      </c>
+    </row>
+    <row r="112" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V112" t="str">
+        <v>ACCEPTANCE CRITERIA: Pipes CHAR(AMP) pits placed as shown on the drawings. No laying to occur until bedding lines and levels and compaction requirements have been satisfied</v>
+      </c>
+    </row>
+    <row r="113" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V113" t="str">
+        <v>REFERENCE DOCUMENTS: Drawings 701.17</v>
+      </c>
+    </row>
+    <row r="114" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V114" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="115" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V115" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="116" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V116" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="117" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V117" t="str">
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
+      </c>
+    </row>
+    <row r="118" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V118" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="119" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V119" t="str">
+        <v>2.7 - Jointing pipe sections</v>
+      </c>
+    </row>
+    <row r="120" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V120" t="str">
+        <v>FREQUENCY: Each Line</v>
+      </c>
+    </row>
+    <row r="121" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V121" t="str">
+        <v>ACCEPTANCE CRITERIA: Join pipes with rubber rings in accordance to manufacturer's instructions, check that the rings are clean and undisturbed. Any disturbed rings are to be cleaned and reassembled</v>
+      </c>
+    </row>
+    <row r="122" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V122" t="str">
+        <v>REFERENCE DOCUMENTS: 701.18</v>
+      </c>
+    </row>
+    <row r="123" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V123" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="124" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V124" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="125" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V125" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="126" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V126" t="str">
+        <v>RESPONSIBILITY: Project Engineer / Site Foreman</v>
+      </c>
+    </row>
+    <row r="127" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V127" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="128" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V128" t="str">
+        <v>2.8 - Place CHAR(AMP) compact backfill material over pipes</v>
+      </c>
+    </row>
+    <row r="129" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V129" t="str">
+        <v>FREQUENCY: each lot</v>
+      </c>
+    </row>
+    <row r="130" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V130" t="str">
+        <v>ACCEPTANCE CRITERIA: Backfill under paved area:
+fill trench with selected back fill material to subgrade level
+Backfill under area not paved:
+Back fill trench with selected back fill to a level 0.3 m above the top of pipe or culvert, and ordinary back fill above that level
+Loose layer thickness CHAR(LESS)= 150mm. 1 lot = 150mm layer</v>
+      </c>
+    </row>
+    <row r="131" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V131" t="str">
+        <v>REFERENCE DOCUMENTS: 701.14
+701.15</v>
+      </c>
+    </row>
+    <row r="132" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V132" t="str">
+        <v>INSPECTION/TEST METHOD: Visual Inspection</v>
+      </c>
+    </row>
+    <row r="133" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V133" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="134" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V134" t="str">
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="135" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V135" t="str">
+        <v>RESPONSIBILITY: Site Engineer / Site Foreman</v>
+      </c>
+    </row>
+    <row r="136" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V136" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="137" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V137" t="str">
+        <v>2.9 - Repairs to damaged pipes</v>
+      </c>
+    </row>
+    <row r="138" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V138" t="str">
+        <v>FREQUENCY: Each damaged pipe</v>
+      </c>
+    </row>
+    <row r="139" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V139" t="str">
+        <v>ACCEPTANCE CRITERIA: No repairs shall be undertaken without the superintendents approval of the repair materials and procedures
+All repair procedures undertaken in accordance with Cl 701.25</v>
+      </c>
+    </row>
+    <row r="140" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V140" t="str">
+        <v>REFERENCE DOCUMENTS: 701.31</v>
+      </c>
+    </row>
+    <row r="141" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V141" t="str">
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+    </row>
+    <row r="142" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V142" t="str">
+        <v>RECORD OF CONFORMITY: ITP Signed</v>
+      </c>
+    </row>
+    <row r="143" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V143" t="str">
+        <v>HP</v>
+      </c>
+    </row>
+    <row r="144" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V144" t="str">
+        <v>RESPONSIBILITY: Engineer / Forman CHAR(AMP)  Superintendent</v>
+      </c>
+    </row>
+    <row r="145" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V145" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="146" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V146" t="str">
+        <v>3.1 - Compaction and moisture content of backfill  CHAR(AMP) bedding material</v>
+      </c>
+    </row>
+    <row r="147" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V147" t="str">
+        <v>FREQUENCY: as required/requested</v>
+      </c>
+    </row>
+    <row r="148" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V148" t="str">
+        <v>ACCEPTANCE CRITERIA: Backfill material shall be compactied to a mean density ratio of 92% using standard compactive effort.
+Bedding material shall be compacted using a compaction plated to refusal.</v>
+      </c>
+    </row>
+    <row r="149" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V149" t="str">
+        <v>REFERENCE DOCUMENTS: 701.2</v>
+      </c>
+    </row>
+    <row r="150" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V150" t="str">
+        <v>INSPECTION/TEST METHOD: Verify</v>
+      </c>
+    </row>
+    <row r="151" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V151" t="str">
+        <v>RECORD OF CONFORMITY: Test Reports</v>
+      </c>
+    </row>
+    <row r="152" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V152" t="str">
+        <v>TP</v>
+      </c>
+    </row>
+    <row r="153" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V153" t="str">
+        <v>RESPONSIBILITY: Project Engineer</v>
+      </c>
+    </row>
+    <row r="154" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V154" t="str">
+        <v>Date Completed:</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
